--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2718s\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2373937B-D704-4CC0-AB27-DF37417F05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F89DE-855A-462B-804B-C3CE5C00FF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="209">
   <si>
     <t>상호명</t>
   </si>
@@ -42,6 +42,15 @@
     <t>운영시간</t>
   </si>
   <si>
+    <t>Break time</t>
+  </si>
+  <si>
+    <t>Last order</t>
+  </si>
+  <si>
+    <t>특이사항</t>
+  </si>
+  <si>
     <t>최대 수용 인원</t>
   </si>
   <si>
@@ -94,6 +103,12 @@
   </si>
   <si>
     <t>11:00 ~ 20:30</t>
+  </si>
+  <si>
+    <t>15:00 ~ 16:00</t>
+  </si>
+  <si>
+    <t>주말 브레이크 타임 없음, 5~8월은 휴무일 없음</t>
   </si>
   <si>
     <r>
@@ -144,6 +159,9 @@
     <t>첨단공원국밥</t>
   </si>
   <si>
+    <t>00:00 ~ 24:00</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -213,6 +231,9 @@
     <t>흐엉비엣</t>
   </si>
   <si>
+    <t>둘째 주 화요일, 넷째 주 화요일 휴무</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -899,23 +920,12 @@
   <si>
     <t>https://kko.kakao.com/i83Wbbf38g</t>
   </si>
-  <si>
-    <t>00:00 ~ 24:00</t>
-  </si>
-  <si>
-    <t>00:00 ~ 24:00</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -979,27 +989,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1112,12 +1101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1364,102 +1351,123 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="7" max="13" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="34.453125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="T1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="Z2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>582</v>
@@ -1474,46 +1482,57 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1">
         <v>60</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3" s="1">
         <v>4</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>789</v>
@@ -1528,43 +1547,45 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="1">
         <v>60</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4" s="1">
         <v>4</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>752</v>
@@ -1578,43 +1599,43 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1">
         <v>100</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>4</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>677</v>
@@ -1629,43 +1650,45 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="1">
         <v>60</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>6</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>714</v>
@@ -1680,43 +1703,45 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>204</v>
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1">
         <v>24</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>632</v>
@@ -1731,43 +1756,48 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>204</v>
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="1">
+        <v>48</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="1">
         <v>40</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>692</v>
@@ -1782,43 +1812,45 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="1">
         <v>80</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>8</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1">
         <v>761</v>
@@ -1833,42 +1865,42 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="1">
         <v>24</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10" s="1">
         <v>6</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>684</v>
@@ -1883,89 +1915,92 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="1">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="1">
         <v>46</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>63</v>
+      <c r="S11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="10:14" ht="15.75" customHeight="1">
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="10:14" ht="15.75" customHeight="1">
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J17:N17"/>
+  <mergeCells count="16">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="P7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="P8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="P9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="P10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="P11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="S3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="T5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="T6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="T8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="S9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="T9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="T10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="S11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="T11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1983,95 +2018,95 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="Q1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
       <c r="U2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -2086,25 +2121,25 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N3" s="1">
         <v>36</v>
@@ -2112,45 +2147,45 @@
       <c r="O3" s="1">
         <v>10</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>68</v>
+      <c r="P3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="U4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="U7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="U8" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="U9" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2196,54 +2231,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="G2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>81</v>
+      <c r="G2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1">
         <v>14</v>
@@ -2252,24 +2287,24 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
@@ -2278,21 +2313,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1">
         <v>22</v>
@@ -2301,21 +2336,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -2324,21 +2359,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1">
         <v>23</v>
@@ -2347,21 +2382,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1">
         <v>25</v>
@@ -2370,105 +2405,105 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="O14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="P14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="Q14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="U14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
       <c r="U15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2481,25 +2516,25 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N16" s="1">
         <v>40</v>
@@ -2507,23 +2542,23 @@
       <c r="O16" s="1">
         <v>4</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>110</v>
+      <c r="P16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S16" s="1"/>
       <c r="U16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="15.75" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -2535,25 +2570,25 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="N17" s="1">
         <v>44</v>
@@ -2561,22 +2596,22 @@
       <c r="O17" s="1">
         <v>6</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>114</v>
+      <c r="P17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.75" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1">
         <v>22</v>
@@ -2588,45 +2623,45 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D19" s="1">
         <v>20</v>
@@ -2635,54 +2670,54 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O19" s="1">
         <v>8</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>123</v>
+      <c r="P19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D20" s="1">
         <v>23</v>
@@ -2694,51 +2729,51 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="O20" s="1">
         <v>12</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>126</v>
+      <c r="P20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1">
         <v>25</v>
@@ -2750,51 +2785,51 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O21" s="1">
         <v>4</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>129</v>
+      <c r="P21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D22" s="1">
         <v>24</v>
@@ -2806,25 +2841,25 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="N22" s="1">
         <v>10</v>
@@ -2832,25 +2867,25 @@
       <c r="O22" s="1">
         <v>3</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>133</v>
+      <c r="P22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D23" s="1">
         <v>24</v>
@@ -2862,25 +2897,25 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N23" s="1">
         <v>100</v>
@@ -2888,22 +2923,22 @@
       <c r="O23" s="1">
         <v>4</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>138</v>
+      <c r="P23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="15.75" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -2915,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N24" s="1">
         <v>60</v>
@@ -2941,22 +2976,22 @@
       <c r="O24" s="1">
         <v>8</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>143</v>
+      <c r="P24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="15.75" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -2968,25 +3003,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N25" s="1">
         <v>24</v>
@@ -2994,22 +3029,22 @@
       <c r="O25" s="1">
         <v>4</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>148</v>
+      <c r="P25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15.75" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D26" s="1">
         <v>25</v>
@@ -3021,25 +3056,25 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N26" s="1">
         <v>28</v>
@@ -3047,22 +3082,22 @@
       <c r="O26" s="1">
         <v>4</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>153</v>
+      <c r="P26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="15.75" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
@@ -3074,25 +3109,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N27" s="1">
         <v>30</v>
@@ -3100,22 +3135,22 @@
       <c r="O27" s="1">
         <v>4</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>157</v>
+      <c r="P27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15.75" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -3127,25 +3162,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="N28" s="1">
         <v>60</v>
@@ -3153,22 +3188,22 @@
       <c r="O28" s="1">
         <v>8</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>162</v>
+      <c r="P28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="15.75" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1">
         <v>25</v>
@@ -3180,25 +3215,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N29" s="1">
         <v>30</v>
@@ -3206,22 +3241,22 @@
       <c r="O29" s="1">
         <v>6</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>167</v>
+      <c r="P29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="15.75" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D30" s="1">
         <v>26</v>
@@ -3233,25 +3268,25 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N30" s="1">
         <v>16</v>
@@ -3259,22 +3294,22 @@
       <c r="O30" s="1">
         <v>4</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>173</v>
+      <c r="P30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1">
         <v>27</v>
@@ -3286,25 +3321,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N31" s="1">
         <v>30</v>
@@ -3312,22 +3347,22 @@
       <c r="O31" s="1">
         <v>10</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>176</v>
+      <c r="P31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1">
         <v>27</v>
@@ -3339,25 +3374,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="N32" s="1">
         <v>40</v>
@@ -3365,25 +3400,25 @@
       <c r="O32" s="1">
         <v>6</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>180</v>
+      <c r="P32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:19" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1">
         <v>27</v>
@@ -3395,25 +3430,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N33" s="1">
         <v>20</v>
@@ -3421,25 +3456,25 @@
       <c r="O33" s="1">
         <v>4</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>184</v>
+      <c r="P33" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="2:19" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D34" s="1">
         <v>27</v>
@@ -3451,25 +3486,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N34" s="1">
         <v>60</v>
@@ -3477,25 +3512,25 @@
       <c r="O34" s="1">
         <v>4</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>187</v>
+      <c r="P34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D35" s="1">
         <v>27</v>
@@ -3507,25 +3542,25 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N35" s="1">
         <v>40</v>
@@ -3533,19 +3568,19 @@
       <c r="O35" s="1">
         <v>4</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>190</v>
+      <c r="P35" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="15.75" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D36" s="1">
         <v>27</v>
@@ -3557,25 +3592,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N36" s="1">
         <v>70</v>
@@ -3583,22 +3618,22 @@
       <c r="O36" s="1">
         <v>6</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>196</v>
+      <c r="P36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="15.75" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D37" s="1">
         <v>27</v>
@@ -3610,25 +3645,25 @@
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N37" s="1">
         <v>40</v>
@@ -3636,14 +3671,14 @@
       <c r="O37" s="1">
         <v>4</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>201</v>
+      <c r="P37" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="364">
   <si>
     <t>상호명</t>
   </si>
@@ -141,6 +141,9 @@
     <t>https://kko.kakao.com/5umNmUcj_W</t>
   </si>
   <si>
+    <t>밑먹</t>
+  </si>
+  <si>
     <t>cafe</t>
   </si>
   <si>
@@ -237,7 +240,7 @@
     <t>무료1</t>
   </si>
   <si>
-    <t>금성칡냉명</t>
+    <t>금성칡냉면</t>
   </si>
   <si>
     <t>9:30 ~ 21:00</t>
@@ -633,7 +636,7 @@
     <t>https://kko.kakao.com/ShurQloeeS</t>
   </si>
   <si>
-    <t>한우이번지식육식당 규이치 첨담</t>
+    <t>한우일번지식육식당 규이치 첨담</t>
   </si>
   <si>
     <t>11:30~22:00</t>
@@ -684,16 +687,379 @@
     <t>https://kko.kakao.com/GuNlfBGtPx</t>
   </si>
   <si>
-    <t>밥집</t>
-  </si>
-  <si>
-    <t>9:00-21:00</t>
-  </si>
-  <si>
-    <t>http://naver123</t>
-  </si>
-  <si>
-    <t>http://kakao123</t>
+    <t>투썸플레이스 광주첨단호수공원점</t>
+  </si>
+  <si>
+    <t>09:00~23:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/FZ2C5qTB</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/NpWeBEg4e1</t>
+  </si>
+  <si>
+    <t>어썸바이츠</t>
+  </si>
+  <si>
+    <t>12:00~22:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/57VZWLnh</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/JWOFZkxB0p</t>
+  </si>
+  <si>
+    <t>디저트맛집, 예카</t>
+  </si>
+  <si>
+    <t>이디야커피 광주첨단점</t>
+  </si>
+  <si>
+    <t>08:00~23:00</t>
+  </si>
+  <si>
+    <t>09:00~22:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/57VKfUPK</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/dqkS00-4Wf</t>
+  </si>
+  <si>
+    <t>박스터커피</t>
+  </si>
+  <si>
+    <t>11:00~23:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/xzlO2xzV</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/VrXgqtWGlM</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛 광주첨단점</t>
+  </si>
+  <si>
+    <t>07:00~23:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GI3gjc99</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/NOqr76NWhM</t>
+  </si>
+  <si>
+    <t>카페하논</t>
+  </si>
+  <si>
+    <t>12:00~23:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/xyTGymKj</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/Gl7Bmvvf_-</t>
+  </si>
+  <si>
+    <t>예카</t>
+  </si>
+  <si>
+    <t>고요커피</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GXAf01HM</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/TOrdTF5zth</t>
+  </si>
+  <si>
+    <t>메가MGC커피 광주첨단점</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GfCSC6CR</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/BSJv5qMwDE</t>
+  </si>
+  <si>
+    <t>파더스베이글</t>
+  </si>
+  <si>
+    <t>11:00~19:30</t>
+  </si>
+  <si>
+    <t>10:00~20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/xwmd3tID</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/wdjjIxoobf</t>
+  </si>
+  <si>
+    <t>피키컵스</t>
+  </si>
+  <si>
+    <t>10:00~23:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/Fr7pGXy7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/2roYvs0LOJ</t>
+  </si>
+  <si>
+    <t>이디야커피 광주첨단LC타워점</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/xwmqzlbr</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/tfgtkWdsjf</t>
+  </si>
+  <si>
+    <t>온클라우드나인 첨단점</t>
+  </si>
+  <si>
+    <t>00:00~24:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GKUJdQbb</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/qi9bzCE_Rg</t>
+  </si>
+  <si>
+    <t>좌석</t>
+  </si>
+  <si>
+    <t>카페네페르</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GPdougJt</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/hHxHDJhF0c</t>
+  </si>
+  <si>
+    <t>페어링첨단</t>
+  </si>
+  <si>
+    <t>11:00~02:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/5oE5dXxi</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/bZnhE89-q2</t>
+  </si>
+  <si>
+    <t>프랭크커ㅠㅣㄴ바 첨단점</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GplQq2TN</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/P9usYXrm8r</t>
+  </si>
+  <si>
+    <t>스타벅스 시리단길점</t>
+  </si>
+  <si>
+    <t>딜리버스 마감 1시간 전까지 가능</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/56RMH6T4</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/1vIf8BY5Ll</t>
+  </si>
+  <si>
+    <t>카페로드뷰 광주첨단점</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/x3jFmqeq</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/I4jYu0jV4a</t>
+  </si>
+  <si>
+    <t>아우어베이커리 광주첨단점</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/52R5hzbg</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/pJLd16v8ET</t>
+  </si>
+  <si>
+    <t>클로스커피</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/52R5hzbg</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/z1c3WADShC</t>
+  </si>
+  <si>
+    <t>밀호</t>
+  </si>
+  <si>
+    <t>11:00~20:00</t>
+  </si>
+  <si>
+    <t>테이크아웃만 가능</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/GALzZuh0</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/oUOIQP5Qsf</t>
+  </si>
+  <si>
+    <t>개마싯슴</t>
+  </si>
+  <si>
+    <t>다올</t>
+  </si>
+  <si>
+    <t>12:00~24:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://naver.me/5huaJN3Z</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kko.kakao.com/7kCJ2LgG_B</t>
   </si>
   <si>
     <t>유메</t>
@@ -702,9 +1068,6 @@
     <t>18:00~02:00</t>
   </si>
   <si>
-    <t>휴무</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -720,9 +1083,6 @@
     <t>네코이</t>
   </si>
   <si>
-    <t>1.2km</t>
-  </si>
-  <si>
     <t>11:30~23:00</t>
   </si>
   <si>
@@ -744,18 +1104,12 @@
     <t>주당</t>
   </si>
   <si>
-    <t>1.4km</t>
-  </si>
-  <si>
     <t>17:00~02:00</t>
   </si>
   <si>
     <t>둘째주, 넷째주 일요일 휴무</t>
   </si>
   <si>
-    <t>36 + 알파</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -771,21 +1125,9 @@
     <t>하이킹</t>
   </si>
   <si>
-    <t>2.0km</t>
-  </si>
-  <si>
-    <t>1 (1시간), 2</t>
-  </si>
-  <si>
     <t>11:00~01:00</t>
   </si>
   <si>
-    <t>11:00~02:00</t>
-  </si>
-  <si>
-    <t>60 + 알파</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -801,15 +1143,9 @@
     <t>술링</t>
   </si>
   <si>
-    <t>1.8km</t>
-  </si>
-  <si>
     <t>17:00~06:00</t>
   </si>
   <si>
-    <t>2명에서 최대 12명 수용 룸</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -825,12 +1161,6 @@
     <t>느린마을양조장</t>
   </si>
   <si>
-    <t>1.5km</t>
-  </si>
-  <si>
-    <t>40 + 알파</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -906,9 +1236,6 @@
     <t>문광</t>
   </si>
   <si>
-    <t>1.6km</t>
-  </si>
-  <si>
     <t>17:00 ~ 01:00</t>
   </si>
   <si>
@@ -948,9 +1275,6 @@
     <t>독도집</t>
   </si>
   <si>
-    <t>1.9km</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -1008,9 +1332,6 @@
     <t>맴맴</t>
   </si>
   <si>
-    <t>2.1km</t>
-  </si>
-  <si>
     <t>16:00 ~ 2:00</t>
   </si>
   <si>
@@ -1122,9 +1443,6 @@
     <t>하이바</t>
   </si>
   <si>
-    <t>2.6km</t>
-  </si>
-  <si>
     <t>17:00 ~ 5:00</t>
   </si>
   <si>
@@ -1140,18 +1458,12 @@
     <t>https://kko.kakao.com/i83Wbbf38g</t>
   </si>
   <si>
-    <t>청년홍양꼬치</t>
-  </si>
-  <si>
-    <t>1.1km</t>
+    <t>천년홍양꼬치</t>
   </si>
   <si>
     <t>17:00~05:00</t>
   </si>
   <si>
-    <t xml:space="preserve">40 + </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -1164,9 +1476,6 @@
     <t>라스트춘선</t>
   </si>
   <si>
-    <t>1.7km</t>
-  </si>
-  <si>
     <t>17:00~03:00</t>
   </si>
   <si>
@@ -1174,9 +1483,6 @@
   </si>
   <si>
     <t>02:00, 03:00(금토)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 + </t>
   </si>
   <si>
     <r>
@@ -1267,7 +1573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1292,11 +1598,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="AppleSDGothicNeo-Regular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1405,7 +1706,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1443,12 +1744,9 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1839,6 +2137,9 @@
       <c r="T3" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="U3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="V3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1898,13 +2199,19 @@
       <c r="T4" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="U4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Z4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>752.0</v>
@@ -1919,31 +2226,31 @@
         <v>1.0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="5">
         <v>100.0</v>
@@ -1952,18 +2259,21 @@
         <v>4.0</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>677.0</v>
@@ -1978,28 +2288,28 @@
         <v>1.0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="8">
         <v>0.8541666666666666</v>
@@ -2011,18 +2321,21 @@
         <v>6.0</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5">
         <v>714.0</v>
@@ -2037,25 +2350,25 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O7" s="8">
         <v>0.8472222222222222</v>
@@ -2067,18 +2380,21 @@
         <v>4.0</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <v>632.0</v>
@@ -2093,28 +2409,28 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="5">
         <v>40.0</v>
@@ -2123,18 +2439,21 @@
         <v>4.0</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5">
         <v>692.0</v>
@@ -2149,25 +2468,25 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="5">
         <v>80.0</v>
@@ -2176,21 +2495,24 @@
         <v>8.0</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="5">
         <v>761.0</v>
@@ -2205,25 +2527,25 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O10" s="8">
         <v>0.9513888888888888</v>
@@ -2235,15 +2557,18 @@
         <v>6.0</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5">
         <v>684.0</v>
@@ -2258,34 +2583,34 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O11" s="8">
         <v>0.05555555555555555</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="5">
         <v>46.0</v>
@@ -2294,15 +2619,18 @@
         <v>6.0</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>992.0</v>
@@ -2317,25 +2645,25 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="5">
         <v>16.0</v>
@@ -2344,15 +2672,18 @@
         <v>4.0</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5">
         <v>1200.0</v>
@@ -2367,28 +2698,28 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="5">
         <v>60.0</v>
@@ -2397,19 +2728,21 @@
         <v>8.0</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="U13" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="W13" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5">
         <v>1100.0</v>
@@ -2424,25 +2757,25 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="8">
         <v>0.8541666666666666</v>
@@ -2454,18 +2787,21 @@
         <v>8.0</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5">
         <v>1200.0</v>
@@ -2480,25 +2816,25 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="5">
         <v>35.0</v>
@@ -2507,18 +2843,21 @@
         <v>6.0</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5">
         <v>1300.0</v>
@@ -2533,25 +2872,25 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O16" s="8">
         <v>0.8541666666666666</v>
@@ -2563,15 +2902,18 @@
         <v>4.0</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="5">
         <v>1500.0</v>
@@ -2586,25 +2928,25 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="8">
@@ -2617,15 +2959,18 @@
         <v>8.0</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5">
         <v>1300.0</v>
@@ -2640,29 +2985,29 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N18" s="11"/>
       <c r="P18" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="5">
         <v>40.0</v>
@@ -2671,15 +3016,18 @@
         <v>4.0</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5">
         <v>1400.0</v>
@@ -2694,25 +3042,25 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O19" s="8">
         <v>0.8958333333333334</v>
@@ -2724,18 +3072,21 @@
         <v>4.0</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5">
         <v>1300.0</v>
@@ -2750,28 +3101,28 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O20" s="8">
         <v>0.9409722222222222</v>
@@ -2783,18 +3134,21 @@
         <v>4.0</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5">
         <v>1600.0</v>
@@ -2809,28 +3163,28 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O21" s="8">
         <v>0.8888888888888888</v>
@@ -2842,18 +3196,21 @@
         <v>8.0</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="5">
         <v>1300.0</v>
@@ -2868,25 +3225,25 @@
         <v>1.0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O22" s="8">
         <v>0.8541666666666666</v>
@@ -2898,18 +3255,21 @@
         <v>4.0</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="5">
         <v>1100.0</v>
@@ -2924,28 +3284,28 @@
         <v>1.0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O23" s="8">
         <v>0.8541666666666666</v>
@@ -2957,18 +3317,21 @@
         <v>8.0</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5">
         <v>998.0</v>
@@ -2983,28 +3346,28 @@
         <v>1.0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8">
         <v>0.8611111111111112</v>
@@ -3016,18 +3379,21 @@
         <v>4.0</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" s="5">
         <v>1000.0</v>
@@ -3042,25 +3408,25 @@
         <v>1.0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="5">
         <v>60.0</v>
@@ -3069,18 +3435,21 @@
         <v>8.0</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" s="5">
         <v>1000.0</v>
@@ -3095,25 +3464,25 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O26" s="8">
         <v>0.875</v>
@@ -3125,18 +3494,21 @@
         <v>4.0</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27" s="5">
         <v>951.0</v>
@@ -3151,25 +3523,25 @@
         <v>1.0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27" s="5">
         <v>60.0</v>
@@ -3178,18 +3550,21 @@
         <v>8.0</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="5">
         <v>974.0</v>
@@ -3204,25 +3579,25 @@
         <v>1.0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="5">
         <v>60.0</v>
@@ -3231,18 +3606,21 @@
         <v>4.0</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" s="5">
         <v>986.0</v>
@@ -3260,25 +3638,25 @@
         <v>35</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O29" s="8">
         <v>0.875</v>
@@ -3290,18 +3668,21 @@
         <v>6.0</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" s="5">
         <v>1000.0</v>
@@ -3316,25 +3697,25 @@
         <v>1.0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O30" s="8">
         <v>0.8854166666666666</v>
@@ -3346,18 +3727,21 @@
         <v>8.0</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" s="5">
         <v>1000.0</v>
@@ -3372,28 +3756,28 @@
         <v>2.0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O31" s="8">
         <v>0.8541666666666666</v>
@@ -3405,18 +3789,21 @@
         <v>8.0</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="5">
         <v>1000.0</v>
@@ -3431,25 +3818,25 @@
         <v>1.0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="5">
         <v>60.0</v>
@@ -3458,13 +3845,2640 @@
         <v>6.0</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="5">
+        <v>597.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="5">
+        <v>620.0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="5">
+        <v>570.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R35" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="5">
+        <v>653.0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="R36" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="5">
+        <v>923.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="R37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1100.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R38" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1200.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1300.0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1300.0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="R41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1300.0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R42" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="T42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1300.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="R43" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1600.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="R44" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="R45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1600.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="R46" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T46" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R47" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="R48" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="T48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1600.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R49" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T49" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="R50" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1900.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="R51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1800.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="T52" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="R53" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="5">
+        <v>891.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S54" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="T54" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1200.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R55" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="T55" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1400.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="T56" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="13">
+        <v>2000.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R57" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1800.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="R58" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="T58" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R59" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="R60" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="R61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R62" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="T62" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1600.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="R63" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="T63" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1800.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="R64" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="T64" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1900.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="R65" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1900.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R66" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="T66" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="R67" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="T67" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2100.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="R68" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="T68" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2100.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="R69" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="T69" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2100.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R70" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="T70" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2100.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="R71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2100.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R72" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="T72" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2100.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="R73" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="T73" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2600.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R74" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="T74" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1100.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R75" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R76" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="T76" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1600.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="R77" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S77" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="T77" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="R78" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="T78" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="R79" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S79" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="T79" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="R80" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S80" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="T80" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3546,8 +6560,104 @@
     <hyperlink r:id="rId58" ref="T31"/>
     <hyperlink r:id="rId59" ref="S32"/>
     <hyperlink r:id="rId60" ref="T32"/>
+    <hyperlink r:id="rId61" ref="S33"/>
+    <hyperlink r:id="rId62" ref="T33"/>
+    <hyperlink r:id="rId63" ref="S34"/>
+    <hyperlink r:id="rId64" ref="T34"/>
+    <hyperlink r:id="rId65" ref="S35"/>
+    <hyperlink r:id="rId66" ref="T35"/>
+    <hyperlink r:id="rId67" ref="S36"/>
+    <hyperlink r:id="rId68" ref="T36"/>
+    <hyperlink r:id="rId69" ref="S37"/>
+    <hyperlink r:id="rId70" ref="T37"/>
+    <hyperlink r:id="rId71" ref="S38"/>
+    <hyperlink r:id="rId72" ref="T38"/>
+    <hyperlink r:id="rId73" ref="S39"/>
+    <hyperlink r:id="rId74" ref="T39"/>
+    <hyperlink r:id="rId75" ref="S40"/>
+    <hyperlink r:id="rId76" ref="T40"/>
+    <hyperlink r:id="rId77" ref="S41"/>
+    <hyperlink r:id="rId78" ref="T41"/>
+    <hyperlink r:id="rId79" ref="S42"/>
+    <hyperlink r:id="rId80" ref="T42"/>
+    <hyperlink r:id="rId81" ref="S43"/>
+    <hyperlink r:id="rId82" ref="T43"/>
+    <hyperlink r:id="rId83" ref="S44"/>
+    <hyperlink r:id="rId84" ref="T44"/>
+    <hyperlink r:id="rId85" ref="S45"/>
+    <hyperlink r:id="rId86" ref="T45"/>
+    <hyperlink r:id="rId87" ref="S46"/>
+    <hyperlink r:id="rId88" ref="T46"/>
+    <hyperlink r:id="rId89" ref="S47"/>
+    <hyperlink r:id="rId90" ref="T47"/>
+    <hyperlink r:id="rId91" ref="S48"/>
+    <hyperlink r:id="rId92" ref="T48"/>
+    <hyperlink r:id="rId93" ref="S49"/>
+    <hyperlink r:id="rId94" ref="T49"/>
+    <hyperlink r:id="rId95" ref="S50"/>
+    <hyperlink r:id="rId96" ref="T50"/>
+    <hyperlink r:id="rId97" ref="S51"/>
+    <hyperlink r:id="rId98" ref="T51"/>
+    <hyperlink r:id="rId99" ref="S52"/>
+    <hyperlink r:id="rId100" ref="T52"/>
+    <hyperlink r:id="rId101" ref="S53"/>
+    <hyperlink r:id="rId102" ref="T53"/>
+    <hyperlink r:id="rId103" ref="S54"/>
+    <hyperlink r:id="rId104" ref="T54"/>
+    <hyperlink r:id="rId105" ref="S55"/>
+    <hyperlink r:id="rId106" ref="T55"/>
+    <hyperlink r:id="rId107" ref="S56"/>
+    <hyperlink r:id="rId108" ref="T56"/>
+    <hyperlink r:id="rId109" ref="S57"/>
+    <hyperlink r:id="rId110" ref="T57"/>
+    <hyperlink r:id="rId111" ref="S58"/>
+    <hyperlink r:id="rId112" ref="T58"/>
+    <hyperlink r:id="rId113" ref="S59"/>
+    <hyperlink r:id="rId114" ref="T59"/>
+    <hyperlink r:id="rId115" ref="S60"/>
+    <hyperlink r:id="rId116" ref="T60"/>
+    <hyperlink r:id="rId117" ref="S61"/>
+    <hyperlink r:id="rId118" ref="T61"/>
+    <hyperlink r:id="rId119" ref="S62"/>
+    <hyperlink r:id="rId120" ref="T62"/>
+    <hyperlink r:id="rId121" ref="S63"/>
+    <hyperlink r:id="rId122" ref="T63"/>
+    <hyperlink r:id="rId123" ref="S64"/>
+    <hyperlink r:id="rId124" ref="T64"/>
+    <hyperlink r:id="rId125" ref="S65"/>
+    <hyperlink r:id="rId126" ref="T65"/>
+    <hyperlink r:id="rId127" ref="S66"/>
+    <hyperlink r:id="rId128" ref="T66"/>
+    <hyperlink r:id="rId129" ref="S67"/>
+    <hyperlink r:id="rId130" ref="T67"/>
+    <hyperlink r:id="rId131" ref="S68"/>
+    <hyperlink r:id="rId132" ref="T68"/>
+    <hyperlink r:id="rId133" ref="S69"/>
+    <hyperlink r:id="rId134" ref="T69"/>
+    <hyperlink r:id="rId135" ref="S70"/>
+    <hyperlink r:id="rId136" ref="T70"/>
+    <hyperlink r:id="rId137" ref="S71"/>
+    <hyperlink r:id="rId138" ref="T71"/>
+    <hyperlink r:id="rId139" ref="S72"/>
+    <hyperlink r:id="rId140" ref="T72"/>
+    <hyperlink r:id="rId141" ref="S73"/>
+    <hyperlink r:id="rId142" ref="T73"/>
+    <hyperlink r:id="rId143" ref="S74"/>
+    <hyperlink r:id="rId144" ref="T74"/>
+    <hyperlink r:id="rId145" ref="S75"/>
+    <hyperlink r:id="rId146" ref="T75"/>
+    <hyperlink r:id="rId147" ref="S76"/>
+    <hyperlink r:id="rId148" ref="T76"/>
+    <hyperlink r:id="rId149" ref="S77"/>
+    <hyperlink r:id="rId150" ref="T77"/>
+    <hyperlink r:id="rId151" ref="S78"/>
+    <hyperlink r:id="rId152" ref="T78"/>
+    <hyperlink r:id="rId153" ref="S79"/>
+    <hyperlink r:id="rId154" ref="T79"/>
+    <hyperlink r:id="rId155" ref="S80"/>
+    <hyperlink r:id="rId156" ref="T80"/>
   </hyperlinks>
-  <drawing r:id="rId61"/>
+  <drawing r:id="rId157"/>
 </worksheet>
 </file>
 
@@ -3587,24 +6697,33 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3641,7 +6760,10 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="X2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3649,96 +6771,45 @@
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="5">
-        <v>36.0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="U4" s="5" t="s">
-        <v>38</v>
+      <c r="X4" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="U6" s="5" t="s">
-        <v>51</v>
+      <c r="X6" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
-      <c r="U7" s="5" t="s">
-        <v>56</v>
+      <c r="X7" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8">
-      <c r="U8" s="5" t="s">
-        <v>61</v>
+      <c r="X8" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
-      <c r="U9" s="5" t="s">
-        <v>66</v>
+      <c r="X9" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -3747,11 +6818,7 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="P3"/>
-    <hyperlink r:id="rId2" ref="Q3"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3862,1432 +6929,6 @@
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="5">
-        <v>891.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>44.0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="R6" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="5">
-        <v>23.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="R7" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="R8" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="R12" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="R13" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="R14" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="R15" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="R17" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="R20" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="R21" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="R24" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D25" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="R25" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>80.0</v>
-      </c>
-      <c r="R26" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="R27" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="R28" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="R29" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="T29" s="9" t="s">
-        <v>303</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5307,62 +6948,6 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="S3"/>
-    <hyperlink r:id="rId2" ref="T3"/>
-    <hyperlink r:id="rId3" ref="S4"/>
-    <hyperlink r:id="rId4" ref="T4"/>
-    <hyperlink r:id="rId5" ref="S5"/>
-    <hyperlink r:id="rId6" ref="T5"/>
-    <hyperlink r:id="rId7" ref="S6"/>
-    <hyperlink r:id="rId8" ref="T6"/>
-    <hyperlink r:id="rId9" ref="S7"/>
-    <hyperlink r:id="rId10" ref="T7"/>
-    <hyperlink r:id="rId11" ref="S8"/>
-    <hyperlink r:id="rId12" ref="T8"/>
-    <hyperlink r:id="rId13" ref="S9"/>
-    <hyperlink r:id="rId14" ref="T9"/>
-    <hyperlink r:id="rId15" ref="S10"/>
-    <hyperlink r:id="rId16" ref="T10"/>
-    <hyperlink r:id="rId17" ref="S11"/>
-    <hyperlink r:id="rId18" ref="T11"/>
-    <hyperlink r:id="rId19" ref="S12"/>
-    <hyperlink r:id="rId20" ref="T12"/>
-    <hyperlink r:id="rId21" ref="S13"/>
-    <hyperlink r:id="rId22" ref="T13"/>
-    <hyperlink r:id="rId23" ref="S14"/>
-    <hyperlink r:id="rId24" ref="T14"/>
-    <hyperlink r:id="rId25" ref="S15"/>
-    <hyperlink r:id="rId26" ref="T15"/>
-    <hyperlink r:id="rId27" ref="S16"/>
-    <hyperlink r:id="rId28" ref="T16"/>
-    <hyperlink r:id="rId29" ref="S17"/>
-    <hyperlink r:id="rId30" ref="T17"/>
-    <hyperlink r:id="rId31" ref="S18"/>
-    <hyperlink r:id="rId32" ref="T18"/>
-    <hyperlink r:id="rId33" ref="S19"/>
-    <hyperlink r:id="rId34" ref="T19"/>
-    <hyperlink r:id="rId35" ref="S20"/>
-    <hyperlink r:id="rId36" ref="T20"/>
-    <hyperlink r:id="rId37" ref="S21"/>
-    <hyperlink r:id="rId38" ref="T21"/>
-    <hyperlink r:id="rId39" ref="S22"/>
-    <hyperlink r:id="rId40" ref="T22"/>
-    <hyperlink r:id="rId41" ref="S23"/>
-    <hyperlink r:id="rId42" ref="T23"/>
-    <hyperlink r:id="rId43" ref="S24"/>
-    <hyperlink r:id="rId44" ref="T24"/>
-    <hyperlink r:id="rId45" ref="S25"/>
-    <hyperlink r:id="rId46" ref="T25"/>
-    <hyperlink r:id="rId47" ref="S26"/>
-    <hyperlink r:id="rId48" ref="T26"/>
-    <hyperlink r:id="rId49" ref="S27"/>
-    <hyperlink r:id="rId50" ref="T27"/>
-    <hyperlink r:id="rId51" ref="S28"/>
-    <hyperlink r:id="rId52" ref="T28"/>
-    <hyperlink r:id="rId53" ref="S29"/>
-    <hyperlink r:id="rId54" ref="T29"/>
-  </hyperlinks>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -942,16 +942,10 @@
     <t>https://kko.kakao.com/bZnhE89-q2</t>
   </si>
   <si>
-    <t>프랭크커ㅠㅣㄴ바 첨단점</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://naver.me/GplQq2TN</t>
-    </r>
+    <t>프랭크커핀바 첨단점</t>
+  </si>
+  <si>
+    <t>https://naver.me/GplQq2TN</t>
   </si>
   <si>
     <t>https://kko.kakao.com/P9usYXrm8r</t>
@@ -4695,7 +4689,7 @@
       <c r="R47" s="5">
         <v>4.0</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="S47" s="12" t="s">
         <v>224</v>
       </c>
       <c r="T47" s="9" t="s">
